--- a/medicine/Enfance/Le_Lion,_la_Sorcière_blanche_et_l'Armoire_magique/Le_Lion,_la_Sorcière_blanche_et_l'Armoire_magique.xlsx
+++ b/medicine/Enfance/Le_Lion,_la_Sorcière_blanche_et_l'Armoire_magique/Le_Lion,_la_Sorcière_blanche_et_l'Armoire_magique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Lion,_la_Sorci%C3%A8re_blanche_et_l%27Armoire_magique</t>
+          <t>Le_Lion,_la_Sorcière_blanche_et_l'Armoire_magique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Lion, la Sorcière blanche et l'Armoire magique (en anglais : The Lion, the Witch and the Wardrobe) est un roman fantastique pour la jeunesse de Clive Staples Lewis, publié en 1950. C'est le premier tome paru de la série Le Monde de Narnia, qui en compte sept. Dans l'ordre de lecture, c'est le deuxième.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Lion,_la_Sorci%C3%A8re_blanche_et_l%27Armoire_magique</t>
+          <t>Le_Lion,_la_Sorcière_blanche_et_l'Armoire_magique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la Seconde Guerre mondiale (Bataille d'Angleterre), pour échapper aux bombardements de Londres, quatre enfants (Peter, Susan, Edmund et Lucy Pevensie) sont envoyés par leurs parents dans le vaste et antique manoir du vieux professeur Kirke.
 Un après-midi, alors que les enfants explorent la maison, Lucy — la benjamine — découvre une armoire mystérieuse donnant accès à un autre monde. Cette armoire a été fabriquée par le professeur Kirke, dans son enfance, avec le bois d'un pommier magique provenant du monde féerique de Narnia.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Lion,_la_Sorci%C3%A8re_blanche_et_l%27Armoire_magique</t>
+          <t>Le_Lion,_la_Sorcière_blanche_et_l'Armoire_magique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Liste des chapitres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lucy découvre une armoire magique
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Lion,_la_Sorci%C3%A8re_blanche_et_l%27Armoire_magique</t>
+          <t>Le_Lion,_la_Sorcière_blanche_et_l'Armoire_magique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +616,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Au cinéma et à la télévision
 1967 : The Lion, the Witch and the Wardrobe, série télévisée de dix épisodes de 30 minutes
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Lion,_la_Sorci%C3%A8re_blanche_et_l%27Armoire_magique</t>
+          <t>Le_Lion,_la_Sorcière_blanche_et_l'Armoire_magique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,19 +655,21 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1952 : Le Lion et la Sorcière blanche, traduit par Mme E.-R. Blanchet, collection Idéal-Bibliothèque, Hachette, 189 p. (1re édition en France)
 Rééditions :
 1973 : Le Lion et la sorcière blanche ; traduit par Mme E.-R. Blanchet,  illustrations de Romain Simon, collection : Bibliothèque rose, Hachette, 187 p. (BNF 35144369)
-1980, 1989 : L'Armoire magique Chroniques de Narnia ; 1, traduit par Anne-Marie Dalmais, illustré par Arcady, Bibliothèque du chat perché, Flammarion, 254 p. [1]  (ISBN 2-08-081733-7)
-1998 : L'Armoire magique ; traduit par Anne-Marie Dalmais ; ill. d'Arcady, Castor poche. Junior : fantastique, Flammarion, 246 p.[2]  (ISBN 2-08-164414-2)
-2001, 2003 : L'Armoire magique ; traduit par Anne-Marie Dalmats, illustré par Pauline Baynes, Folio Junior, Gallimard jeunesse, 197 p.[3]  (ISBN 2-07-054643-8)
-2004, 2005 : L'Armoire magique ; adapté par Hiawyn Oram, ill. par Tudor Humphries,  trad. par Cécile Dutheil de la Rochère, Gallimard jeunesse[4]  (ISBN 2-07-056990-X)
-2005 : Le Lion, la Sorcière blanche et l'Armoire magique ; traduit par Anne-Marie Dalmais, illustré par Pauline Baynes, coll. Folio junior no 1390, Gallimard jeunesse, 185 p.[5]   (ISBN 2-07-057075-4)
-2005 : Le Monde de Narnia (recueil des 7 volumes du Monde de Narnia[6]) ;  illustrations de Pauline Baynes, Collection : Hors série, Gallimard jeunesse, 877 p.[7]  (ISBN 2-07-052432-9)
-2008 : Le Lion, la sorcière blanche et l'armoire magique ; traduit par Anne-Marie Dalmais, illustré par Pauline Baynes ; Gallimard-Jeunesse, Collection : Folio junior no 1151 [8]   (ISBN 978-2-07-061901-6)
-2013 : Le Lion, la Sorcière blanche et l'Armoire magique - Le monde de Narnia ; 2 ; traduit par Anne-Marie Dalmais, illustré par Pauline Baynes, Collection : Bibliothèque Gallimard jeunesse, Gallimard, 199 p. [9]   (ISBN 978-2-07-065290-7)</t>
+1980, 1989 : L'Armoire magique Chroniques de Narnia ; 1, traduit par Anne-Marie Dalmais, illustré par Arcady, Bibliothèque du chat perché, Flammarion, 254 p.   (ISBN 2-08-081733-7)
+1998 : L'Armoire magique ; traduit par Anne-Marie Dalmais ; ill. d'Arcady, Castor poche. Junior : fantastique, Flammarion, 246 p.  (ISBN 2-08-164414-2)
+2001, 2003 : L'Armoire magique ; traduit par Anne-Marie Dalmats, illustré par Pauline Baynes, Folio Junior, Gallimard jeunesse, 197 p.  (ISBN 2-07-054643-8)
+2004, 2005 : L'Armoire magique ; adapté par Hiawyn Oram, ill. par Tudor Humphries,  trad. par Cécile Dutheil de la Rochère, Gallimard jeunesse  (ISBN 2-07-056990-X)
+2005 : Le Lion, la Sorcière blanche et l'Armoire magique ; traduit par Anne-Marie Dalmais, illustré par Pauline Baynes, coll. Folio junior no 1390, Gallimard jeunesse, 185 p.   (ISBN 2-07-057075-4)
+2005 : Le Monde de Narnia (recueil des 7 volumes du Monde de Narnia) ;  illustrations de Pauline Baynes, Collection : Hors série, Gallimard jeunesse, 877 p.  (ISBN 2-07-052432-9)
+2008 : Le Lion, la sorcière blanche et l'armoire magique ; traduit par Anne-Marie Dalmais, illustré par Pauline Baynes ; Gallimard-Jeunesse, Collection : Folio junior no 1151    (ISBN 978-2-07-061901-6)
+2013 : Le Lion, la Sorcière blanche et l'Armoire magique - Le monde de Narnia ; 2 ; traduit par Anne-Marie Dalmais, illustré par Pauline Baynes, Collection : Bibliothèque Gallimard jeunesse, Gallimard, 199 p.    (ISBN 978-2-07-065290-7)</t>
         </is>
       </c>
     </row>
@@ -659,7 +679,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le_Lion,_la_Sorci%C3%A8re_blanche_et_l%27Armoire_magique</t>
+          <t>Le_Lion,_la_Sorcière_blanche_et_l'Armoire_magique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,7 +697,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bibliothèque nationale de France</t>
         </is>
